--- a/data/call_apicases.xlsx
+++ b/data/call_apicases.xlsx
@@ -88,74 +88,6 @@
     <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/data/call_apicases.xlsx
+++ b/data/call_apicases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="936" visibility="visible" windowHeight="16416" windowWidth="0" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="936" visibility="visible" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="test_call_sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,14 +15,14 @@
     <sheet name="test_call_client_setting" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" concurrentCalc="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="20">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -32,20 +32,344 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="134"/>
-      <sz val="9"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -68,9 +392,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="23" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="12" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="13" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="12" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="20" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -84,10 +650,126 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="1"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="2"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="3"/>
+    <cellStyle builtinId="20" name="输入" xfId="4"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="5"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="4" name="货币" xfId="7"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="8"/>
+    <cellStyle builtinId="5" name="百分比" xfId="9"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="10"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="11"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="12"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="13"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="14"/>
+    <cellStyle builtinId="22" name="计算" xfId="15"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="16"/>
+    <cellStyle builtinId="28" name="适中" xfId="17"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="18"/>
+    <cellStyle builtinId="26" name="好" xfId="19"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="20"/>
+    <cellStyle builtinId="25" name="汇总" xfId="21"/>
+    <cellStyle builtinId="27" name="差" xfId="22"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="25"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="26"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="27"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="28"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="29"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="30"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="31"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="32"/>
+    <cellStyle builtinId="15" name="标题" xfId="33"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="34"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="35"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="36"/>
+    <cellStyle builtinId="10" name="注释" xfId="37"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="38"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="39"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="40"/>
+    <cellStyle builtinId="8" name="超链接" xfId="41"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="42"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="47"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -343,7 +1025,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -359,19 +1040,19 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.892857142857141" defaultRowHeight="12.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6.77734375"/>
-    <col customWidth="1" max="2" min="2" width="24.6640625"/>
-    <col customWidth="1" max="3" min="3" width="39.77734375"/>
-    <col customWidth="1" max="4" min="4" width="7.44140625"/>
-    <col customWidth="1" max="5" min="5" width="63.44140625"/>
-    <col customWidth="1" max="6" min="6" width="29.88671875"/>
-    <col customWidth="1" max="7" min="7" width="18.44140625"/>
-    <col customWidth="1" max="8" min="8" width="6.33203125"/>
+    <col customWidth="1" max="1" min="1" width="6.77678571428571"/>
+    <col customWidth="1" max="2" min="2" width="24.6696428571429"/>
+    <col customWidth="1" max="3" min="3" width="39.7767857142857"/>
+    <col customWidth="1" max="4" min="4" width="7.45535714285714"/>
+    <col customWidth="1" max="5" min="5" width="63.4553571428571"/>
+    <col customWidth="1" max="6" min="6" width="29.9107142857143"/>
+    <col customWidth="1" max="7" min="7" width="18.4464285714286"/>
+    <col customWidth="1" max="8" min="8" width="6.33035714285714"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.05" r="1">
+    <row customHeight="1" ht="13" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -457,7 +1138,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="3">
+    <row customHeight="1" ht="50" r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -501,7 +1182,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="4">
+    <row customHeight="1" ht="50" r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -545,7 +1226,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="5">
+    <row customHeight="1" ht="50" r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -590,7 +1271,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="6">
+    <row customHeight="1" ht="50" r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -635,7 +1316,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="7">
+    <row customHeight="1" ht="50" r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -680,7 +1361,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="8">
+    <row customHeight="1" ht="50" r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -724,7 +1405,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="9">
+    <row customHeight="1" ht="50" r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -769,7 +1450,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="10">
+    <row customHeight="1" ht="50" r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
@@ -814,7 +1495,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="11">
+    <row customHeight="1" ht="50" r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
@@ -859,7 +1540,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="12">
+    <row customHeight="1" ht="50" r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
@@ -904,7 +1585,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="13">
+    <row customHeight="1" ht="50" r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
@@ -949,7 +1630,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="14">
+    <row customHeight="1" ht="50" r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
@@ -993,7 +1674,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="15">
+    <row customHeight="1" ht="50" r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
@@ -1038,7 +1719,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="16">
+    <row customHeight="1" ht="50" r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
@@ -1083,7 +1764,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="17">
+    <row customHeight="1" ht="50" r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
@@ -1128,7 +1809,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="18">
+    <row customHeight="1" ht="50" r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
@@ -1173,7 +1854,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="19">
+    <row customHeight="1" ht="50" r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
@@ -1218,7 +1899,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="20">
+    <row customHeight="1" ht="50" r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
@@ -1262,7 +1943,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="21">
+    <row customHeight="1" ht="50" r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
@@ -1307,7 +1988,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="22">
+    <row customHeight="1" ht="50" r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
@@ -1352,7 +2033,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="23">
+    <row customHeight="1" ht="50" r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
@@ -1397,7 +2078,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="24">
+    <row customHeight="1" ht="50" r="24">
       <c r="A24" t="n">
         <v>23</v>
       </c>
@@ -1442,7 +2123,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="25">
+    <row customHeight="1" ht="50" r="25">
       <c r="A25" t="n">
         <v>24</v>
       </c>
@@ -1486,7 +2167,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="26">
+    <row customHeight="1" ht="50" r="26">
       <c r="A26" t="n">
         <v>25</v>
       </c>
@@ -1530,7 +2211,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="27">
+    <row customHeight="1" ht="50" r="27">
       <c r="A27" t="n">
         <v>26</v>
       </c>
@@ -1574,7 +2255,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="28">
+    <row customHeight="1" ht="50" r="28">
       <c r="A28" t="n">
         <v>27</v>
       </c>
@@ -1619,7 +2300,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="29">
+    <row customHeight="1" ht="50" r="29">
       <c r="A29" t="n">
         <v>28</v>
       </c>
@@ -1664,7 +2345,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="30">
+    <row customHeight="1" ht="50" r="30">
       <c r="A30" t="n">
         <v>29</v>
       </c>
@@ -1708,7 +2389,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="31">
+    <row customHeight="1" ht="50" r="31">
       <c r="A31" t="n">
         <v>30</v>
       </c>
@@ -1752,7 +2433,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="32">
+    <row customHeight="1" ht="50" r="32">
       <c r="A32" t="n">
         <v>31</v>
       </c>
@@ -1796,7 +2477,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="33">
+    <row customHeight="1" ht="50" r="33">
       <c r="A33" t="n">
         <v>32</v>
       </c>
@@ -1841,7 +2522,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="34">
+    <row customHeight="1" ht="50" r="34">
       <c r="A34" t="n">
         <v>33</v>
       </c>
@@ -1886,7 +2567,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="35">
+    <row customHeight="1" ht="50" r="35">
       <c r="A35" t="n">
         <v>34</v>
       </c>
@@ -1930,7 +2611,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="36">
+    <row customHeight="1" ht="50" r="36">
       <c r="A36" t="n">
         <v>35</v>
       </c>
@@ -1974,7 +2655,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="37">
+    <row customHeight="1" ht="50" r="37">
       <c r="A37" t="n">
         <v>36</v>
       </c>
@@ -2018,7 +2699,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="38">
+    <row customHeight="1" ht="50" r="38">
       <c r="A38" t="n">
         <v>37</v>
       </c>
@@ -2063,7 +2744,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="39">
+    <row customHeight="1" ht="50" r="39">
       <c r="A39" t="n">
         <v>38</v>
       </c>
@@ -2108,7 +2789,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="40">
+    <row customHeight="1" ht="50" r="40">
       <c r="A40" t="n">
         <v>39</v>
       </c>
@@ -2152,7 +2833,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="41">
+    <row customHeight="1" ht="50" r="41">
       <c r="A41" t="n">
         <v>40</v>
       </c>
@@ -2196,7 +2877,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="42">
+    <row customHeight="1" ht="50" r="42">
       <c r="A42" t="n">
         <v>41</v>
       </c>
@@ -2240,7 +2921,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="43">
+    <row customHeight="1" ht="50" r="43">
       <c r="A43" t="n">
         <v>42</v>
       </c>
@@ -2284,7 +2965,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="44">
+    <row customHeight="1" ht="50" r="44">
       <c r="A44" t="n">
         <v>43</v>
       </c>
@@ -2328,7 +3009,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="45">
+    <row customHeight="1" ht="50" r="45">
       <c r="A45" t="n">
         <v>44</v>
       </c>
@@ -2372,7 +3053,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="46">
+    <row customHeight="1" ht="50" r="46">
       <c r="A46" t="n">
         <v>45</v>
       </c>
@@ -2417,7 +3098,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="47">
+    <row customHeight="1" ht="50" r="47">
       <c r="A47" t="n">
         <v>46</v>
       </c>
@@ -2462,7 +3143,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="48">
+    <row customHeight="1" ht="50" r="48">
       <c r="A48" t="n">
         <v>47</v>
       </c>
@@ -2507,7 +3188,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="49">
+    <row customHeight="1" ht="50" r="49">
       <c r="A49" t="n">
         <v>48</v>
       </c>
@@ -2552,7 +3233,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="50">
+    <row customHeight="1" ht="50" r="50">
       <c r="A50" t="n">
         <v>49</v>
       </c>
@@ -2596,7 +3277,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="51">
+    <row customHeight="1" ht="50" r="51">
       <c r="A51" t="n">
         <v>50</v>
       </c>
@@ -2640,7 +3321,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="52">
+    <row customHeight="1" ht="50" r="52">
       <c r="A52" t="n">
         <v>51</v>
       </c>
@@ -2684,7 +3365,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="53">
+    <row customHeight="1" ht="50" r="53">
       <c r="A53" t="n">
         <v>52</v>
       </c>
@@ -2729,7 +3410,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="54">
+    <row customHeight="1" ht="50" r="54">
       <c r="A54" t="n">
         <v>53</v>
       </c>
@@ -2774,7 +3455,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="55">
+    <row customHeight="1" ht="50" r="55">
       <c r="A55" t="n">
         <v>54</v>
       </c>
@@ -2819,7 +3500,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="56">
+    <row customHeight="1" ht="50" r="56">
       <c r="A56" t="n">
         <v>55</v>
       </c>
@@ -2864,7 +3545,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="57">
+    <row customHeight="1" ht="50" r="57">
       <c r="A57" t="n">
         <v>56</v>
       </c>
@@ -2896,7 +3577,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="58">
+    <row customHeight="1" ht="50" r="58">
       <c r="A58" t="n">
         <v>57</v>
       </c>
@@ -2933,7 +3614,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="59">
+    <row customHeight="1" ht="50" r="59">
       <c r="A59" t="n">
         <v>58</v>
       </c>
@@ -2965,7 +3646,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="60">
+    <row customHeight="1" ht="50" r="60">
       <c r="A60" t="n">
         <v>59</v>
       </c>
@@ -2999,7 +3680,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="61">
+    <row customHeight="1" ht="50" r="61">
       <c r="A61" t="n">
         <v>60</v>
       </c>
@@ -3037,7 +3718,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="62">
+    <row customHeight="1" ht="50" r="62">
       <c r="A62" t="n">
         <v>61</v>
       </c>
@@ -3075,7 +3756,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="63">
+    <row customHeight="1" ht="50" r="63">
       <c r="A63" t="n">
         <v>62</v>
       </c>
@@ -3113,7 +3794,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="64">
+    <row customHeight="1" ht="50" r="64">
       <c r="A64" t="n">
         <v>63</v>
       </c>
@@ -3151,7 +3832,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="65">
+    <row customHeight="1" ht="50" r="65">
       <c r="A65" t="n">
         <v>64</v>
       </c>
@@ -3189,7 +3870,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="66">
+    <row customHeight="1" ht="50" r="66">
       <c r="A66" t="n">
         <v>65</v>
       </c>
@@ -3227,7 +3908,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="67">
+    <row customHeight="1" ht="50" r="67">
       <c r="A67" t="n">
         <v>66</v>
       </c>
@@ -3265,7 +3946,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="68">
+    <row customHeight="1" ht="50" r="68">
       <c r="A68" t="n">
         <v>67</v>
       </c>
@@ -3299,7 +3980,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="69">
+    <row customHeight="1" ht="50" r="69">
       <c r="A69" t="n">
         <v>68</v>
       </c>
@@ -3337,7 +4018,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="70">
+    <row customHeight="1" ht="50" r="70">
       <c r="A70" t="n">
         <v>69</v>
       </c>
@@ -3375,7 +4056,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="71">
+    <row customHeight="1" ht="50" r="71">
       <c r="A71" t="n">
         <v>70</v>
       </c>
@@ -3413,7 +4094,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="72">
+    <row customHeight="1" ht="50" r="72">
       <c r="A72" t="n">
         <v>71</v>
       </c>
@@ -3451,7 +4132,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="73">
+    <row customHeight="1" ht="50" r="73">
       <c r="A73" t="n">
         <v>72</v>
       </c>
@@ -3489,7 +4170,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="74">
+    <row customHeight="1" ht="50" r="74">
       <c r="A74" t="n">
         <v>73</v>
       </c>
@@ -3527,7 +4208,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="75">
+    <row customHeight="1" ht="50" r="75">
       <c r="A75" t="n">
         <v>74</v>
       </c>
@@ -3565,7 +4246,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="76">
+    <row customHeight="1" ht="50" r="76">
       <c r="A76" t="n">
         <v>75</v>
       </c>
@@ -3599,7 +4280,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="77">
+    <row customHeight="1" ht="50" r="77">
       <c r="A77" t="n">
         <v>76</v>
       </c>
@@ -3637,7 +4318,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="78">
+    <row customHeight="1" ht="50" r="78">
       <c r="A78" t="n">
         <v>77</v>
       </c>
@@ -3675,7 +4356,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="79">
+    <row customHeight="1" ht="50" r="79">
       <c r="A79" t="n">
         <v>78</v>
       </c>
@@ -3713,7 +4394,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="80">
+    <row customHeight="1" ht="50" r="80">
       <c r="A80" t="n">
         <v>79</v>
       </c>
@@ -3751,7 +4432,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="81">
+    <row customHeight="1" ht="50" r="81">
       <c r="A81" t="n">
         <v>80</v>
       </c>
@@ -3789,7 +4470,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="82">
+    <row customHeight="1" ht="50" r="82">
       <c r="A82" t="n">
         <v>81</v>
       </c>
@@ -3827,7 +4508,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="83">
+    <row customHeight="1" ht="50" r="83">
       <c r="A83" t="n">
         <v>82</v>
       </c>
@@ -3865,7 +4546,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="84">
+    <row customHeight="1" ht="50" r="84">
       <c r="A84" t="n">
         <v>83</v>
       </c>
@@ -3899,7 +4580,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="85">
+    <row customHeight="1" ht="50" r="85">
       <c r="A85" t="n">
         <v>84</v>
       </c>
@@ -3937,7 +4618,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="86">
+    <row customHeight="1" ht="50" r="86">
       <c r="A86" t="n">
         <v>85</v>
       </c>
@@ -3975,7 +4656,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="87">
+    <row customHeight="1" ht="50" r="87">
       <c r="A87" t="n">
         <v>86</v>
       </c>
@@ -4013,7 +4694,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="88">
+    <row customHeight="1" ht="50" r="88">
       <c r="A88" t="n">
         <v>87</v>
       </c>
@@ -4051,7 +4732,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="89">
+    <row customHeight="1" ht="50" r="89">
       <c r="A89" t="n">
         <v>88</v>
       </c>
@@ -4089,7 +4770,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="90">
+    <row customHeight="1" ht="50" r="90">
       <c r="A90" t="n">
         <v>89</v>
       </c>
@@ -4127,7 +4808,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="91">
+    <row customHeight="1" ht="50" r="91">
       <c r="A91" t="n">
         <v>90</v>
       </c>
@@ -4165,7 +4846,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="92">
+    <row customHeight="1" ht="50" r="92">
       <c r="A92" t="n">
         <v>91</v>
       </c>
@@ -4203,7 +4884,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="93">
+    <row customHeight="1" ht="50" r="93">
       <c r="A93" t="n">
         <v>92</v>
       </c>
@@ -4241,7 +4922,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="94">
+    <row customHeight="1" ht="50" r="94">
       <c r="A94" t="n">
         <v>93</v>
       </c>
@@ -4279,7 +4960,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="95">
+    <row customHeight="1" ht="50" r="95">
       <c r="A95" t="n">
         <v>94</v>
       </c>
@@ -4317,7 +4998,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="96">
+    <row customHeight="1" ht="50" r="96">
       <c r="A96" t="n">
         <v>95</v>
       </c>
@@ -4355,7 +5036,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="97">
+    <row customHeight="1" ht="50" r="97">
       <c r="A97" t="n">
         <v>96</v>
       </c>
@@ -4393,7 +5074,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="98">
+    <row customHeight="1" ht="50" r="98">
       <c r="A98" t="n">
         <v>97</v>
       </c>
@@ -4431,7 +5112,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="99">
+    <row customHeight="1" ht="50" r="99">
       <c r="A99" t="n">
         <v>98</v>
       </c>
@@ -4469,7 +5150,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="100">
+    <row customHeight="1" ht="50" r="100">
       <c r="A100" t="n">
         <v>99</v>
       </c>
@@ -4507,7 +5188,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="101">
+    <row customHeight="1" ht="50" r="101">
       <c r="A101" t="n">
         <v>100</v>
       </c>
@@ -4545,7 +5226,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="102">
+    <row customHeight="1" ht="50" r="102">
       <c r="A102" t="n">
         <v>101</v>
       </c>
@@ -4583,7 +5264,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="103">
+    <row customHeight="1" ht="50" r="103">
       <c r="A103" t="n">
         <v>102</v>
       </c>
@@ -4621,7 +5302,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="104">
+    <row customHeight="1" ht="50" r="104">
       <c r="A104" t="n">
         <v>103</v>
       </c>
@@ -4659,7 +5340,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="105">
+    <row customHeight="1" ht="50" r="105">
       <c r="A105" t="n">
         <v>104</v>
       </c>
@@ -4697,7 +5378,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="106">
+    <row customHeight="1" ht="50" r="106">
       <c r="A106" t="n">
         <v>105</v>
       </c>
@@ -4735,7 +5416,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="107">
+    <row customHeight="1" ht="50" r="107">
       <c r="A107" t="n">
         <v>106</v>
       </c>
@@ -4773,7 +5454,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="108">
+    <row customHeight="1" ht="50" r="108">
       <c r="A108" t="n">
         <v>107</v>
       </c>
@@ -4811,7 +5492,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="109">
+    <row customHeight="1" ht="50" r="109">
       <c r="A109" t="n">
         <v>108</v>
       </c>
@@ -4845,7 +5526,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="110">
+    <row customHeight="1" ht="50" r="110">
       <c r="A110" t="n">
         <v>109</v>
       </c>
@@ -4883,7 +5564,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="111">
+    <row customHeight="1" ht="50" r="111">
       <c r="A111" t="n">
         <v>110</v>
       </c>
@@ -4921,7 +5602,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="112">
+    <row customHeight="1" ht="50" r="112">
       <c r="A112" t="n">
         <v>111</v>
       </c>
@@ -4959,7 +5640,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="113">
+    <row customHeight="1" ht="50" r="113">
       <c r="A113" t="n">
         <v>112</v>
       </c>
@@ -4997,7 +5678,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="114">
+    <row customHeight="1" ht="50" r="114">
       <c r="A114" t="n">
         <v>113</v>
       </c>
@@ -5031,7 +5712,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="115">
+    <row customHeight="1" ht="50" r="115">
       <c r="A115" t="n">
         <v>114</v>
       </c>
@@ -5069,7 +5750,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="116">
+    <row customHeight="1" ht="50" r="116">
       <c r="A116" t="n">
         <v>115</v>
       </c>
@@ -5107,7 +5788,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="61.95" r="117">
+    <row customHeight="1" ht="62" r="117">
       <c r="A117" t="n">
         <v>116</v>
       </c>
@@ -5153,7 +5834,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="61.95" r="118">
+    <row customHeight="1" ht="62" r="118">
       <c r="A118" t="n">
         <v>117</v>
       </c>
@@ -5199,7 +5880,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="119">
+    <row customHeight="1" ht="50" r="119">
       <c r="A119" t="n">
         <v>118</v>
       </c>
@@ -5253,19 +5934,19 @@
       <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.892857142857141" defaultRowHeight="12.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6.77734375"/>
-    <col customWidth="1" max="2" min="2" width="24.6640625"/>
-    <col customWidth="1" max="3" min="3" width="39.77734375"/>
-    <col customWidth="1" max="4" min="4" width="7.44140625"/>
-    <col customWidth="1" max="5" min="5" width="63.44140625"/>
-    <col customWidth="1" max="6" min="6" width="29.88671875"/>
-    <col customWidth="1" max="7" min="7" width="18.44140625"/>
-    <col customWidth="1" max="8" min="8" width="6.33203125"/>
+    <col customWidth="1" max="1" min="1" width="6.77678571428571"/>
+    <col customWidth="1" max="2" min="2" width="24.6696428571429"/>
+    <col customWidth="1" max="3" min="3" width="39.7767857142857"/>
+    <col customWidth="1" max="4" min="4" width="7.45535714285714"/>
+    <col customWidth="1" max="5" min="5" width="63.4553571428571"/>
+    <col customWidth="1" max="6" min="6" width="29.9107142857143"/>
+    <col customWidth="1" max="7" min="7" width="18.4553571428571"/>
+    <col customWidth="1" max="8" min="8" width="6.33035714285714"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.05" r="1">
+    <row customHeight="1" ht="13" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -5351,7 +6032,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="3">
+    <row customHeight="1" ht="50" r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -5395,7 +6076,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="4">
+    <row customHeight="1" ht="50" r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -5439,7 +6120,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="5">
+    <row customHeight="1" ht="50" r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -5484,7 +6165,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="6">
+    <row customHeight="1" ht="50" r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -5529,7 +6210,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="7">
+    <row customHeight="1" ht="50" r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -5574,7 +6255,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="8">
+    <row customHeight="1" ht="50" r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -5618,7 +6299,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="9">
+    <row customHeight="1" ht="50" r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -5663,7 +6344,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="10">
+    <row customHeight="1" ht="50" r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
@@ -5708,7 +6389,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="11">
+    <row customHeight="1" ht="50" r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
@@ -5753,7 +6434,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="12">
+    <row customHeight="1" ht="50" r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
@@ -5798,7 +6479,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="13">
+    <row customHeight="1" ht="50" r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
@@ -5843,7 +6524,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="14">
+    <row customHeight="1" ht="50" r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
@@ -5887,7 +6568,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="15">
+    <row customHeight="1" ht="50" r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
@@ -5932,7 +6613,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="16">
+    <row customHeight="1" ht="50" r="16">
       <c r="A16" t="n">
         <v>15</v>
       </c>
@@ -5977,7 +6658,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="17">
+    <row customHeight="1" ht="50" r="17">
       <c r="A17" t="n">
         <v>16</v>
       </c>
@@ -6022,7 +6703,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="18">
+    <row customHeight="1" ht="50" r="18">
       <c r="A18" t="n">
         <v>17</v>
       </c>
@@ -6067,7 +6748,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="19">
+    <row customHeight="1" ht="50" r="19">
       <c r="A19" t="n">
         <v>18</v>
       </c>
@@ -6112,7 +6793,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="20">
+    <row customHeight="1" ht="50" r="20">
       <c r="A20" t="n">
         <v>19</v>
       </c>
@@ -6156,7 +6837,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="21">
+    <row customHeight="1" ht="50" r="21">
       <c r="A21" t="n">
         <v>20</v>
       </c>
@@ -6201,7 +6882,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="22">
+    <row customHeight="1" ht="50" r="22">
       <c r="A22" t="n">
         <v>21</v>
       </c>
@@ -6246,7 +6927,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="23">
+    <row customHeight="1" ht="50" r="23">
       <c r="A23" t="n">
         <v>22</v>
       </c>
@@ -6291,7 +6972,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="24">
+    <row customHeight="1" ht="50" r="24">
       <c r="A24" t="n">
         <v>23</v>
       </c>
@@ -6336,7 +7017,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="25">
+    <row customHeight="1" ht="50" r="25">
       <c r="A25" t="n">
         <v>24</v>
       </c>
@@ -6380,7 +7061,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="26">
+    <row customHeight="1" ht="50" r="26">
       <c r="A26" t="n">
         <v>25</v>
       </c>
@@ -6424,7 +7105,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="27">
+    <row customHeight="1" ht="50" r="27">
       <c r="A27" t="n">
         <v>26</v>
       </c>
@@ -6468,7 +7149,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="28">
+    <row customHeight="1" ht="50" r="28">
       <c r="A28" t="n">
         <v>27</v>
       </c>
@@ -6513,7 +7194,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="29">
+    <row customHeight="1" ht="50" r="29">
       <c r="A29" t="n">
         <v>28</v>
       </c>
@@ -6558,7 +7239,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="30">
+    <row customHeight="1" ht="50" r="30">
       <c r="A30" t="n">
         <v>29</v>
       </c>
@@ -6602,7 +7283,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="31">
+    <row customHeight="1" ht="50" r="31">
       <c r="A31" t="n">
         <v>30</v>
       </c>
@@ -6646,7 +7327,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="32">
+    <row customHeight="1" ht="50" r="32">
       <c r="A32" t="n">
         <v>31</v>
       </c>
@@ -6690,7 +7371,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="33">
+    <row customHeight="1" ht="50" r="33">
       <c r="A33" t="n">
         <v>32</v>
       </c>
@@ -6735,7 +7416,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="34">
+    <row customHeight="1" ht="50" r="34">
       <c r="A34" t="n">
         <v>33</v>
       </c>
@@ -6780,7 +7461,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="35">
+    <row customHeight="1" ht="50" r="35">
       <c r="A35" t="n">
         <v>34</v>
       </c>
@@ -6824,7 +7505,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="36">
+    <row customHeight="1" ht="50" r="36">
       <c r="A36" t="n">
         <v>35</v>
       </c>
@@ -6868,7 +7549,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="37">
+    <row customHeight="1" ht="50" r="37">
       <c r="A37" t="n">
         <v>36</v>
       </c>
@@ -6912,7 +7593,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="38">
+    <row customHeight="1" ht="50" r="38">
       <c r="A38" t="n">
         <v>37</v>
       </c>
@@ -6957,7 +7638,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="39">
+    <row customHeight="1" ht="50" r="39">
       <c r="A39" t="n">
         <v>38</v>
       </c>
@@ -7002,7 +7683,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="40">
+    <row customHeight="1" ht="50" r="40">
       <c r="A40" t="n">
         <v>39</v>
       </c>
@@ -7046,7 +7727,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="41">
+    <row customHeight="1" ht="50" r="41">
       <c r="A41" t="n">
         <v>40</v>
       </c>
@@ -7090,7 +7771,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="42">
+    <row customHeight="1" ht="50" r="42">
       <c r="A42" t="n">
         <v>41</v>
       </c>
@@ -7134,7 +7815,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="43">
+    <row customHeight="1" ht="50" r="43">
       <c r="A43" t="n">
         <v>42</v>
       </c>
@@ -7178,7 +7859,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="44">
+    <row customHeight="1" ht="50" r="44">
       <c r="A44" t="n">
         <v>43</v>
       </c>
@@ -7222,7 +7903,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="45">
+    <row customHeight="1" ht="50" r="45">
       <c r="A45" t="n">
         <v>44</v>
       </c>
@@ -7266,7 +7947,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="46">
+    <row customHeight="1" ht="50" r="46">
       <c r="A46" t="n">
         <v>45</v>
       </c>
@@ -7311,7 +7992,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="47">
+    <row customHeight="1" ht="50" r="47">
       <c r="A47" t="n">
         <v>46</v>
       </c>
@@ -7356,7 +8037,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="48">
+    <row customHeight="1" ht="50" r="48">
       <c r="A48" t="n">
         <v>47</v>
       </c>
@@ -7401,7 +8082,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="49">
+    <row customHeight="1" ht="50" r="49">
       <c r="A49" t="n">
         <v>48</v>
       </c>
@@ -7446,7 +8127,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="50">
+    <row customHeight="1" ht="50" r="50">
       <c r="A50" t="n">
         <v>49</v>
       </c>
@@ -7490,7 +8171,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="51">
+    <row customHeight="1" ht="50" r="51">
       <c r="A51" t="n">
         <v>50</v>
       </c>
@@ -7534,7 +8215,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="52">
+    <row customHeight="1" ht="50" r="52">
       <c r="A52" t="n">
         <v>51</v>
       </c>
@@ -7578,7 +8259,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="53">
+    <row customHeight="1" ht="50" r="53">
       <c r="A53" t="n">
         <v>52</v>
       </c>
@@ -7623,7 +8304,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="54">
+    <row customHeight="1" ht="50" r="54">
       <c r="A54" t="n">
         <v>53</v>
       </c>
@@ -7668,7 +8349,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="55">
+    <row customHeight="1" ht="50" r="55">
       <c r="A55" t="n">
         <v>54</v>
       </c>
@@ -7713,7 +8394,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="56">
+    <row customHeight="1" ht="50" r="56">
       <c r="A56" t="n">
         <v>55</v>
       </c>
@@ -7758,7 +8439,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="57">
+    <row customHeight="1" ht="50" r="57">
       <c r="A57" t="n">
         <v>56</v>
       </c>
@@ -7790,7 +8471,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="58">
+    <row customHeight="1" ht="50" r="58">
       <c r="A58" t="n">
         <v>57</v>
       </c>
@@ -7827,7 +8508,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="59">
+    <row customHeight="1" ht="50" r="59">
       <c r="A59" t="n">
         <v>58</v>
       </c>
@@ -7859,7 +8540,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="60">
+    <row customHeight="1" ht="50" r="60">
       <c r="A60" t="n">
         <v>59</v>
       </c>
@@ -7893,7 +8574,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="61">
+    <row customHeight="1" ht="50" r="61">
       <c r="A61" t="n">
         <v>60</v>
       </c>
@@ -7931,7 +8612,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="62">
+    <row customHeight="1" ht="50" r="62">
       <c r="A62" t="n">
         <v>61</v>
       </c>
@@ -7969,7 +8650,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="63">
+    <row customHeight="1" ht="50" r="63">
       <c r="A63" t="n">
         <v>62</v>
       </c>
@@ -8007,7 +8688,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="64">
+    <row customHeight="1" ht="50" r="64">
       <c r="A64" t="n">
         <v>63</v>
       </c>
@@ -8045,7 +8726,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="65">
+    <row customHeight="1" ht="50" r="65">
       <c r="A65" t="n">
         <v>64</v>
       </c>
@@ -8083,7 +8764,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="66">
+    <row customHeight="1" ht="50" r="66">
       <c r="A66" t="n">
         <v>65</v>
       </c>
@@ -8121,7 +8802,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="67">
+    <row customHeight="1" ht="50" r="67">
       <c r="A67" t="n">
         <v>66</v>
       </c>
@@ -8159,7 +8840,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="68">
+    <row customHeight="1" ht="50" r="68">
       <c r="A68" t="n">
         <v>67</v>
       </c>
@@ -8193,7 +8874,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="69">
+    <row customHeight="1" ht="50" r="69">
       <c r="A69" t="n">
         <v>68</v>
       </c>
@@ -8231,7 +8912,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="70">
+    <row customHeight="1" ht="50" r="70">
       <c r="A70" t="n">
         <v>69</v>
       </c>
@@ -8269,7 +8950,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="71">
+    <row customHeight="1" ht="50" r="71">
       <c r="A71" t="n">
         <v>70</v>
       </c>
@@ -8307,7 +8988,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="72">
+    <row customHeight="1" ht="50" r="72">
       <c r="A72" t="n">
         <v>71</v>
       </c>
@@ -8345,7 +9026,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="73">
+    <row customHeight="1" ht="50" r="73">
       <c r="A73" t="n">
         <v>72</v>
       </c>
@@ -8383,7 +9064,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="74">
+    <row customHeight="1" ht="50" r="74">
       <c r="A74" t="n">
         <v>73</v>
       </c>
@@ -8421,7 +9102,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="75">
+    <row customHeight="1" ht="50" r="75">
       <c r="A75" t="n">
         <v>74</v>
       </c>
@@ -8459,7 +9140,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="76">
+    <row customHeight="1" ht="50" r="76">
       <c r="A76" t="n">
         <v>75</v>
       </c>
@@ -8493,7 +9174,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="77">
+    <row customHeight="1" ht="50" r="77">
       <c r="A77" t="n">
         <v>76</v>
       </c>
@@ -8531,7 +9212,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="78">
+    <row customHeight="1" ht="50" r="78">
       <c r="A78" t="n">
         <v>77</v>
       </c>
@@ -8569,7 +9250,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="79">
+    <row customHeight="1" ht="50" r="79">
       <c r="A79" t="n">
         <v>78</v>
       </c>
@@ -8607,7 +9288,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="80">
+    <row customHeight="1" ht="50" r="80">
       <c r="A80" t="n">
         <v>79</v>
       </c>
@@ -8645,7 +9326,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="81">
+    <row customHeight="1" ht="50" r="81">
       <c r="A81" t="n">
         <v>80</v>
       </c>
@@ -8683,7 +9364,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="82">
+    <row customHeight="1" ht="50" r="82">
       <c r="A82" t="n">
         <v>81</v>
       </c>
@@ -8721,7 +9402,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="83">
+    <row customHeight="1" ht="50" r="83">
       <c r="A83" t="n">
         <v>82</v>
       </c>
@@ -8759,7 +9440,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="84">
+    <row customHeight="1" ht="50" r="84">
       <c r="A84" t="n">
         <v>83</v>
       </c>
@@ -8793,7 +9474,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="85">
+    <row customHeight="1" ht="50" r="85">
       <c r="A85" t="n">
         <v>84</v>
       </c>
@@ -8831,7 +9512,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="86">
+    <row customHeight="1" ht="50" r="86">
       <c r="A86" t="n">
         <v>85</v>
       </c>
@@ -8869,7 +9550,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="87">
+    <row customHeight="1" ht="50" r="87">
       <c r="A87" t="n">
         <v>86</v>
       </c>
@@ -8907,7 +9588,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="88">
+    <row customHeight="1" ht="50" r="88">
       <c r="A88" t="n">
         <v>87</v>
       </c>
@@ -8945,7 +9626,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="89">
+    <row customHeight="1" ht="50" r="89">
       <c r="A89" t="n">
         <v>88</v>
       </c>
@@ -8983,7 +9664,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="90">
+    <row customHeight="1" ht="50" r="90">
       <c r="A90" t="n">
         <v>89</v>
       </c>
@@ -9021,7 +9702,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="91">
+    <row customHeight="1" ht="50" r="91">
       <c r="A91" t="n">
         <v>90</v>
       </c>
@@ -9059,7 +9740,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="92">
+    <row customHeight="1" ht="50" r="92">
       <c r="A92" t="n">
         <v>91</v>
       </c>
@@ -9097,7 +9778,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="93">
+    <row customHeight="1" ht="50" r="93">
       <c r="A93" t="n">
         <v>92</v>
       </c>
@@ -9135,7 +9816,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="94">
+    <row customHeight="1" ht="50" r="94">
       <c r="A94" t="n">
         <v>93</v>
       </c>
@@ -9173,7 +9854,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="95">
+    <row customHeight="1" ht="50" r="95">
       <c r="A95" t="n">
         <v>94</v>
       </c>
@@ -9211,7 +9892,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="96">
+    <row customHeight="1" ht="50" r="96">
       <c r="A96" t="n">
         <v>95</v>
       </c>
@@ -9249,7 +9930,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="97">
+    <row customHeight="1" ht="50" r="97">
       <c r="A97" t="n">
         <v>96</v>
       </c>
@@ -9287,7 +9968,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="98">
+    <row customHeight="1" ht="50" r="98">
       <c r="A98" t="n">
         <v>97</v>
       </c>
@@ -9325,7 +10006,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="99">
+    <row customHeight="1" ht="50" r="99">
       <c r="A99" t="n">
         <v>98</v>
       </c>
@@ -9363,7 +10044,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="100">
+    <row customHeight="1" ht="50" r="100">
       <c r="A100" t="n">
         <v>99</v>
       </c>
@@ -9401,7 +10082,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="101">
+    <row customHeight="1" ht="50" r="101">
       <c r="A101" t="n">
         <v>100</v>
       </c>
@@ -9439,7 +10120,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="102">
+    <row customHeight="1" ht="50" r="102">
       <c r="A102" t="n">
         <v>101</v>
       </c>
@@ -9477,7 +10158,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="103">
+    <row customHeight="1" ht="50" r="103">
       <c r="A103" t="n">
         <v>102</v>
       </c>
@@ -9515,7 +10196,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="104">
+    <row customHeight="1" ht="50" r="104">
       <c r="A104" t="n">
         <v>103</v>
       </c>
@@ -9553,7 +10234,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="105">
+    <row customHeight="1" ht="50" r="105">
       <c r="A105" t="n">
         <v>104</v>
       </c>
@@ -9591,7 +10272,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="106">
+    <row customHeight="1" ht="50" r="106">
       <c r="A106" t="n">
         <v>105</v>
       </c>
@@ -9629,7 +10310,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="107">
+    <row customHeight="1" ht="50" r="107">
       <c r="A107" t="n">
         <v>106</v>
       </c>
@@ -9667,7 +10348,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="108">
+    <row customHeight="1" ht="50" r="108">
       <c r="A108" t="n">
         <v>107</v>
       </c>
@@ -9705,7 +10386,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="109">
+    <row customHeight="1" ht="50" r="109">
       <c r="A109" t="n">
         <v>108</v>
       </c>
@@ -9739,7 +10420,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="110">
+    <row customHeight="1" ht="50" r="110">
       <c r="A110" t="n">
         <v>109</v>
       </c>
@@ -9777,7 +10458,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="111">
+    <row customHeight="1" ht="50" r="111">
       <c r="A111" t="n">
         <v>110</v>
       </c>
@@ -9815,7 +10496,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="112">
+    <row customHeight="1" ht="50" r="112">
       <c r="A112" t="n">
         <v>111</v>
       </c>
@@ -9853,7 +10534,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="113">
+    <row customHeight="1" ht="50" r="113">
       <c r="A113" t="n">
         <v>112</v>
       </c>
@@ -9891,7 +10572,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="114">
+    <row customHeight="1" ht="50" r="114">
       <c r="A114" t="n">
         <v>113</v>
       </c>
@@ -9925,7 +10606,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="115">
+    <row customHeight="1" ht="50" r="115">
       <c r="A115" t="n">
         <v>114</v>
       </c>
@@ -9963,7 +10644,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="116">
+    <row customHeight="1" ht="50" r="116">
       <c r="A116" t="n">
         <v>115</v>
       </c>
@@ -10001,7 +10682,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="61.95" r="117">
+    <row customHeight="1" ht="62" r="117">
       <c r="A117" t="n">
         <v>116</v>
       </c>
@@ -10047,7 +10728,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="61.95" r="118">
+    <row customHeight="1" ht="62" r="118">
       <c r="A118" t="n">
         <v>117</v>
       </c>
@@ -10093,7 +10774,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="119">
+    <row customHeight="1" ht="50" r="119">
       <c r="A119" t="n">
         <v>118</v>
       </c>
@@ -10152,19 +10833,19 @@
       <selection activeCell="A4" sqref="A4:J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.892857142857141" defaultRowHeight="12.4" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6.77734375"/>
-    <col customWidth="1" max="2" min="2" width="24.6640625"/>
-    <col customWidth="1" max="3" min="3" width="25.44140625"/>
-    <col customWidth="1" max="4" min="4" width="7.44140625"/>
-    <col customWidth="1" max="5" min="5" width="63.44140625"/>
-    <col customWidth="1" max="6" min="6" width="35.21875"/>
-    <col customWidth="1" max="7" min="7" width="18.44140625"/>
-    <col customWidth="1" max="8" min="8" width="6.33203125"/>
+    <col customWidth="1" max="1" min="1" width="6.77678571428571"/>
+    <col customWidth="1" max="2" min="2" width="24.6696428571429"/>
+    <col customWidth="1" max="3" min="3" width="25.4553571428571"/>
+    <col customWidth="1" max="4" min="4" width="7.45535714285714"/>
+    <col customWidth="1" max="5" min="5" width="63.4553571428571"/>
+    <col customWidth="1" max="6" min="6" width="35.2678571428571"/>
+    <col customWidth="1" max="7" min="7" width="18.4553571428571"/>
+    <col customWidth="1" max="8" min="8" width="6.33035714285714"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.05" r="1">
+    <row customHeight="1" ht="13" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -10253,7 +10934,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="3">
+    <row customHeight="1" ht="50" r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -10317,19 +10998,19 @@
       <selection activeCell="A8" sqref="A8:K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.892857142857141" defaultRowHeight="12.4" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6.77734375"/>
-    <col customWidth="1" max="2" min="2" width="24.6640625"/>
-    <col customWidth="1" max="3" min="3" width="25.44140625"/>
-    <col customWidth="1" max="4" min="4" width="7.44140625"/>
-    <col customWidth="1" max="5" min="5" width="63.44140625"/>
-    <col customWidth="1" max="6" min="6" width="35.21875"/>
-    <col customWidth="1" max="7" min="7" width="18.44140625"/>
-    <col customWidth="1" max="8" min="8" width="6.33203125"/>
+    <col customWidth="1" max="1" min="1" width="6.77678571428571"/>
+    <col customWidth="1" max="2" min="2" width="24.6696428571429"/>
+    <col customWidth="1" max="3" min="3" width="25.4553571428571"/>
+    <col customWidth="1" max="4" min="4" width="7.45535714285714"/>
+    <col customWidth="1" max="5" min="5" width="63.4553571428571"/>
+    <col customWidth="1" max="6" min="6" width="35.2678571428571"/>
+    <col customWidth="1" max="7" min="7" width="18.4553571428571"/>
+    <col customWidth="1" max="8" min="8" width="6.33035714285714"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.05" r="1">
+    <row customHeight="1" ht="13" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -10415,7 +11096,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="3">
+    <row customHeight="1" ht="50" r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -10460,7 +11141,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="4">
+    <row customHeight="1" ht="50" r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -10504,7 +11185,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="5">
+    <row customHeight="1" ht="50" r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -10549,7 +11230,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="6">
+    <row customHeight="1" ht="50" r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -10594,7 +11275,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="7">
+    <row customHeight="1" ht="50" r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -10652,21 +11333,21 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.892857142857141" defaultRowHeight="12.4" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="20.21875"/>
-    <col customWidth="1" max="4" min="4" width="16.109375"/>
-    <col customWidth="1" max="5" min="5" width="52.6640625"/>
-    <col customWidth="1" max="6" min="6" width="32.33203125"/>
-    <col customWidth="1" max="7" min="7" width="23.33203125"/>
-    <col customWidth="1" max="8" min="8" width="11.33203125"/>
+    <col customWidth="1" max="3" min="3" width="20.2321428571429"/>
+    <col customWidth="1" max="4" min="4" width="16.0714285714286"/>
+    <col customWidth="1" max="5" min="5" width="52.6696428571429"/>
+    <col customWidth="1" max="6" min="6" width="32.2857142857143"/>
+    <col customWidth="1" max="7" min="7" width="23.3571428571429"/>
+    <col customWidth="1" max="8" min="8" width="11.3035714285714"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.05" r="1">
+    <row customHeight="1" ht="13" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -10708,7 +11389,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="2">
+    <row customHeight="1" ht="50" r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -10752,7 +11433,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="3">
+    <row customHeight="1" ht="50" r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -10809,23 +11490,23 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:AY43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.892857142857141" defaultRowHeight="12.4" outlineLevelRow="2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6.77734375"/>
-    <col customWidth="1" max="2" min="2" width="24.6640625"/>
-    <col customWidth="1" max="3" min="3" width="25.44140625"/>
-    <col customWidth="1" max="4" min="4" width="7.44140625"/>
-    <col customWidth="1" max="5" min="5" width="63.44140625"/>
-    <col customWidth="1" max="6" min="6" width="35.21875"/>
-    <col customWidth="1" max="7" min="7" width="18.44140625"/>
-    <col customWidth="1" max="8" min="8" width="6.33203125"/>
+    <col customWidth="1" max="1" min="1" width="6.77678571428571"/>
+    <col customWidth="1" max="2" min="2" width="24.6696428571429"/>
+    <col customWidth="1" max="3" min="3" width="25.4553571428571"/>
+    <col customWidth="1" max="4" min="4" width="7.45535714285714"/>
+    <col customWidth="1" max="5" min="5" width="63.4553571428571"/>
+    <col customWidth="1" max="6" min="6" width="35.2678571428571"/>
+    <col customWidth="1" max="7" min="7" width="18.4553571428571"/>
+    <col customWidth="1" max="8" min="8" width="6.33035714285714"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.05" r="1">
+    <row customHeight="1" ht="13" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -10867,7 +11548,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="112.8" r="2">
+    <row customHeight="1" ht="50" r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -10932,7 +11613,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="3">
+    <row customHeight="1" ht="50" r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -11014,19 +11695,19 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.892857142857141" defaultRowHeight="12.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="6.77734375"/>
-    <col customWidth="1" max="2" min="2" width="24.6640625"/>
-    <col customWidth="1" max="3" min="3" width="25.44140625"/>
-    <col customWidth="1" max="4" min="4" width="7.44140625"/>
-    <col customWidth="1" max="5" min="5" width="63.44140625"/>
-    <col customWidth="1" max="6" min="6" width="35.21875"/>
-    <col customWidth="1" max="7" min="7" width="18.44140625"/>
-    <col customWidth="1" max="8" min="8" width="6.33203125"/>
+    <col customWidth="1" max="1" min="1" width="6.77678571428571"/>
+    <col customWidth="1" max="2" min="2" width="24.6696428571429"/>
+    <col customWidth="1" max="3" min="3" width="25.4553571428571"/>
+    <col customWidth="1" max="4" min="4" width="7.45535714285714"/>
+    <col customWidth="1" max="5" min="5" width="63.4553571428571"/>
+    <col customWidth="1" max="6" min="6" width="35.2678571428571"/>
+    <col customWidth="1" max="7" min="7" width="18.4553571428571"/>
+    <col customWidth="1" max="8" min="8" width="6.33035714285714"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.05" r="1">
+    <row customHeight="1" ht="13" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -11068,7 +11749,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="2">
+    <row customHeight="1" ht="50" r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -11128,7 +11809,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="3">
+    <row customHeight="1" ht="50" r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -11188,7 +11869,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="4">
+    <row customHeight="1" ht="50" r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -11227,7 +11908,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="5">
+    <row customHeight="1" ht="50" r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -11266,7 +11947,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="6">
+    <row customHeight="1" ht="50" r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -11295,7 +11976,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="7">
+    <row customHeight="1" ht="50" r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -11328,7 +12009,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="8">
+    <row customHeight="1" ht="50" r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -11361,7 +12042,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="49.95" r="9">
+    <row customHeight="1" ht="50" r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
